--- a/embedded_cl_in_1st_layer_of_ice_single_water_to_cl_ccsd.xlsx
+++ b/embedded_cl_in_1st_layer_of_ice_single_water_to_cl_ccsd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/github_thesis_graph/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C7E87D-6B2C-DC40-A23B-A3A2BB3466D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C48D963-211C-3B45-AEFC-DFAE4F5EFEBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="1240" windowWidth="21640" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
+    <workbookView xWindow="3960" yWindow="960" windowWidth="21640" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,453 +388,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894879FA-00C2-5D46-B04A-A85BFC6EEBFA}">
-  <dimension ref="B3:R28"/>
+  <dimension ref="B4:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>2</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N4" t="s">
         <v>3</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>2833.047536</v>
-      </c>
-      <c r="F4">
-        <v>275.4979932</v>
-      </c>
-      <c r="J4">
-        <v>204.09148329999999</v>
-      </c>
-      <c r="N4">
-        <v>204.93894230000001</v>
-      </c>
-      <c r="R4">
-        <v>203.24402430000001</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>2832.5795400000002</v>
+        <v>2833.047536</v>
       </c>
       <c r="F5">
-        <v>275.06690889999999</v>
+        <v>275.4979932</v>
       </c>
       <c r="J5">
-        <v>203.65773669999999</v>
+        <v>204.09148329999999</v>
       </c>
       <c r="N5">
-        <v>204.50507210000001</v>
+        <v>204.93894230000001</v>
       </c>
       <c r="R5">
-        <v>202.8104013</v>
+        <v>203.24402430000001</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>2832.9288999999999</v>
+        <v>2832.5795400000002</v>
       </c>
       <c r="F6">
-        <v>275.4191343</v>
+        <v>275.06690889999999</v>
       </c>
       <c r="J6">
-        <v>204.00988469999999</v>
+        <v>203.65773669999999</v>
       </c>
       <c r="N6">
-        <v>204.85720889999999</v>
+        <v>204.50507210000001</v>
       </c>
       <c r="R6">
-        <v>203.16256039999999</v>
+        <v>202.8104013</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>2828.3437869999998</v>
+        <v>2832.9288999999999</v>
       </c>
       <c r="F7">
-        <v>270.92929129999999</v>
+        <v>275.4191343</v>
       </c>
       <c r="J7">
-        <v>199.5458936</v>
+        <v>204.00988469999999</v>
       </c>
       <c r="N7">
-        <v>200.3933681</v>
+        <v>204.85720889999999</v>
       </c>
       <c r="R7">
-        <v>198.69841919999999</v>
+        <v>203.16256039999999</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>2832.9579530000001</v>
+        <v>2828.3437869999998</v>
       </c>
       <c r="F8">
-        <v>275.43790230000002</v>
+        <v>270.92929129999999</v>
       </c>
       <c r="J8">
-        <v>204.02943089999999</v>
+        <v>199.5458936</v>
       </c>
       <c r="N8">
-        <v>204.8767986</v>
+        <v>200.3933681</v>
       </c>
       <c r="R8">
-        <v>203.18206319999999</v>
+        <v>198.69841919999999</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>2831.4584789999999</v>
+        <v>2832.9579530000001</v>
       </c>
       <c r="F9">
-        <v>273.89570529999997</v>
+        <v>275.43790230000002</v>
       </c>
       <c r="J9">
-        <v>202.4906579</v>
+        <v>204.02943089999999</v>
       </c>
       <c r="N9">
-        <v>203.33816809999999</v>
+        <v>204.8767986</v>
       </c>
       <c r="R9">
-        <v>201.64314759999999</v>
+        <v>203.18206319999999</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>2832.3558539999999</v>
+        <v>2831.4584789999999</v>
       </c>
       <c r="F10">
-        <v>274.83998550000001</v>
+        <v>273.89570529999997</v>
       </c>
       <c r="J10">
-        <v>203.43131600000001</v>
+        <v>202.4906579</v>
       </c>
       <c r="N10">
-        <v>204.27865650000001</v>
+        <v>203.33816809999999</v>
       </c>
       <c r="R10">
-        <v>202.58397550000001</v>
+        <v>201.64314759999999</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>2832.4917639999999</v>
+        <v>2832.3558539999999</v>
       </c>
       <c r="F11">
-        <v>274.94197229999997</v>
+        <v>274.83998550000001</v>
       </c>
       <c r="J11">
-        <v>203.53579110000001</v>
+        <v>203.43131600000001</v>
       </c>
       <c r="N11">
-        <v>204.38323539999999</v>
+        <v>204.27865650000001</v>
       </c>
       <c r="R11">
-        <v>202.6883469</v>
+        <v>202.58397550000001</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12">
-        <v>2832.6044019999999</v>
+        <v>2832.4917639999999</v>
       </c>
       <c r="F12">
-        <v>275.07372420000002</v>
+        <v>274.94197229999997</v>
       </c>
       <c r="J12">
-        <v>203.6657251</v>
+        <v>203.53579110000001</v>
       </c>
       <c r="N12">
-        <v>204.51311000000001</v>
+        <v>204.38323539999999</v>
       </c>
       <c r="R12">
-        <v>202.81834019999999</v>
+        <v>202.6883469</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13">
-        <v>2831.7597190000001</v>
+        <v>2832.6044019999999</v>
       </c>
       <c r="F13">
-        <v>274.21060949999998</v>
+        <v>275.07372420000002</v>
       </c>
       <c r="J13">
-        <v>202.80417990000001</v>
+        <v>203.6657251</v>
       </c>
       <c r="N13">
-        <v>203.65162710000001</v>
+        <v>204.51311000000001</v>
       </c>
       <c r="R13">
-        <v>201.95673260000001</v>
+        <v>202.81834019999999</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14">
-        <v>2831.646671</v>
+        <v>2831.7597190000001</v>
       </c>
       <c r="F14">
-        <v>274.08242089999999</v>
+        <v>274.21060949999998</v>
       </c>
       <c r="J14">
-        <v>202.6769942</v>
+        <v>202.80417990000001</v>
       </c>
       <c r="N14">
-        <v>203.52450390000001</v>
+        <v>203.65162710000001</v>
       </c>
       <c r="R14">
-        <v>201.8294846</v>
+        <v>201.95673260000001</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>2831.613331</v>
+        <v>2831.646671</v>
       </c>
       <c r="F15">
-        <v>274.05881049999999</v>
+        <v>274.08242089999999</v>
       </c>
       <c r="J15">
-        <v>202.6525096</v>
+        <v>202.6769942</v>
       </c>
       <c r="N15">
-        <v>203.4999895</v>
+        <v>203.52450390000001</v>
       </c>
       <c r="R15">
-        <v>201.80502960000001</v>
+        <v>201.8294846</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16">
-        <v>2831.9260439999998</v>
+        <v>2831.613331</v>
       </c>
       <c r="F16">
-        <v>274.41097710000003</v>
+        <v>274.05881049999999</v>
       </c>
       <c r="J16">
-        <v>203.0020251</v>
+        <v>202.6525096</v>
       </c>
       <c r="N16">
-        <v>203.84937360000001</v>
+        <v>203.4999895</v>
       </c>
       <c r="R16">
-        <v>202.15467659999999</v>
+        <v>201.80502960000001</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17">
-        <v>2832.713816</v>
+        <v>2831.9260439999998</v>
       </c>
       <c r="F17">
-        <v>275.17934939999998</v>
+        <v>274.41097710000003</v>
       </c>
       <c r="J17">
-        <v>203.77192450000001</v>
+        <v>203.0020251</v>
       </c>
       <c r="N17">
-        <v>204.6193241</v>
+        <v>203.84937360000001</v>
       </c>
       <c r="R17">
-        <v>202.92452499999999</v>
+        <v>202.15467659999999</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18">
-        <v>2832.9569449999999</v>
+        <v>2832.713816</v>
       </c>
       <c r="F18">
-        <v>275.44506339999998</v>
+        <v>275.17934939999998</v>
       </c>
       <c r="J18">
-        <v>204.0359254</v>
+        <v>203.77192450000001</v>
       </c>
       <c r="N18">
-        <v>204.88325309999999</v>
+        <v>204.6193241</v>
       </c>
       <c r="R18">
-        <v>203.1885977</v>
+        <v>202.92452499999999</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19">
-        <v>2832.2236290000001</v>
+        <v>2832.9569449999999</v>
       </c>
       <c r="F19">
-        <v>274.67940959999999</v>
+        <v>275.44506339999998</v>
       </c>
       <c r="J19">
-        <v>203.27288490000001</v>
+        <v>204.0359254</v>
       </c>
       <c r="N19">
-        <v>204.1203094</v>
+        <v>204.88325309999999</v>
       </c>
       <c r="R19">
-        <v>202.42546039999999</v>
+        <v>203.1885977</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20">
-        <v>2831.8736039999999</v>
+        <v>2832.2236290000001</v>
       </c>
       <c r="F20">
-        <v>274.32325809999998</v>
+        <v>274.67940959999999</v>
       </c>
       <c r="J20">
-        <v>202.91658519999999</v>
+        <v>203.27288490000001</v>
       </c>
       <c r="N20">
-        <v>203.76406489999999</v>
+        <v>204.1203094</v>
       </c>
       <c r="R20">
-        <v>202.06910550000001</v>
+        <v>202.42546039999999</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21">
-        <v>2830.8073869999998</v>
+        <v>2831.8736039999999</v>
       </c>
       <c r="F21">
-        <v>273.17381699999999</v>
+        <v>274.32325809999998</v>
       </c>
       <c r="J21">
-        <v>201.81222310000001</v>
+        <v>202.91658519999999</v>
       </c>
       <c r="N21">
-        <v>202.65986179999999</v>
+        <v>203.76406489999999</v>
       </c>
       <c r="R21">
-        <v>200.96458430000001</v>
+        <v>202.06910550000001</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22">
-        <v>2832.952127</v>
+        <v>2830.8073869999998</v>
       </c>
       <c r="F22">
-        <v>275.43354260000001</v>
+        <v>273.17381699999999</v>
       </c>
       <c r="J22">
-        <v>204.0247358</v>
+        <v>201.81222310000001</v>
       </c>
       <c r="N22">
-        <v>204.87208759999999</v>
+        <v>202.65986179999999</v>
       </c>
       <c r="R22">
-        <v>203.17738399999999</v>
+        <v>200.96458430000001</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23">
-        <v>2833.3361930000001</v>
+        <v>2832.952127</v>
       </c>
       <c r="F23">
-        <v>275.83515569999997</v>
+        <v>275.43354260000001</v>
       </c>
       <c r="J23">
-        <v>204.4249489</v>
+        <v>204.0247358</v>
       </c>
       <c r="N23">
-        <v>205.2722474</v>
+        <v>204.87208759999999</v>
       </c>
       <c r="R23">
-        <v>203.5776505</v>
+        <v>203.17738399999999</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24">
-        <v>2831.598105</v>
+        <v>2833.3361930000001</v>
       </c>
       <c r="F24">
-        <v>274.03102639999997</v>
+        <v>275.83515569999997</v>
       </c>
       <c r="J24">
-        <v>202.62565799999999</v>
+        <v>204.4249489</v>
       </c>
       <c r="N24">
-        <v>203.47321120000001</v>
+        <v>205.2722474</v>
       </c>
       <c r="R24">
-        <v>201.77810489999999</v>
+        <v>203.5776505</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25">
-        <v>2830.8131079999998</v>
+        <v>2831.598105</v>
       </c>
       <c r="F25">
-        <v>273.19750859999999</v>
+        <v>274.03102639999997</v>
       </c>
       <c r="J25">
-        <v>201.8342351</v>
+        <v>202.62565799999999</v>
       </c>
       <c r="N25">
-        <v>202.68179230000001</v>
+        <v>203.47321120000001</v>
       </c>
       <c r="R25">
-        <v>200.98667789999999</v>
+        <v>201.77810489999999</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26">
-        <v>2832.7135969999999</v>
+        <v>2830.8131079999998</v>
       </c>
       <c r="F26">
-        <v>275.20596610000001</v>
+        <v>273.19750859999999</v>
       </c>
       <c r="J26">
-        <v>203.79644859999999</v>
+        <v>201.8342351</v>
       </c>
       <c r="N26">
-        <v>204.6437731</v>
+        <v>202.68179230000001</v>
       </c>
       <c r="R26">
-        <v>202.94912400000001</v>
+        <v>200.98667789999999</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27">
-        <v>2832.3486240000002</v>
+        <v>2832.7135969999999</v>
       </c>
       <c r="F27">
-        <v>274.8558041</v>
+        <v>275.20596610000001</v>
       </c>
       <c r="J27">
-        <v>203.4451875</v>
+        <v>203.79644859999999</v>
       </c>
       <c r="N27">
-        <v>204.29248269999999</v>
+        <v>204.6437731</v>
       </c>
       <c r="R27">
-        <v>202.59789230000001</v>
+        <v>202.94912400000001</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28">
+        <v>2832.3486240000002</v>
+      </c>
+      <c r="F28">
+        <v>274.8558041</v>
+      </c>
+      <c r="J28">
+        <v>203.4451875</v>
+      </c>
+      <c r="N28">
+        <v>204.29248269999999</v>
+      </c>
+      <c r="R28">
+        <v>202.59789230000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29">
         <v>2832.6976800000002</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>275.17209380000003</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>203.76399180000001</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>204.61135609999999</v>
       </c>
-      <c r="R28">
+      <c r="R29">
         <v>202.9166276</v>
       </c>
     </row>

--- a/embedded_cl_in_1st_layer_of_ice_single_water_to_cl_ccsd.xlsx
+++ b/embedded_cl_in_1st_layer_of_ice_single_water_to_cl_ccsd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C48D963-211C-3B45-AEFC-DFAE4F5EFEBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F53C06-A3B0-284B-B7E8-5FC3DF11615E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="960" windowWidth="21640" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Embedded_one_water_1s_cl_acv3z_x2camf</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Embedded_one_water_p12_cl_acv3z_x2camf</t>
+  </si>
+  <si>
+    <t>Embedded_one_water_p32_cl_acv3z_x2camf</t>
   </si>
 </sst>
 </file>
@@ -390,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894879FA-00C2-5D46-B04A-A85BFC6EEBFA}">
   <dimension ref="B4:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -410,7 +413,7 @@
         <v>3</v>
       </c>
       <c r="R4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">

--- a/embedded_cl_in_1st_layer_of_ice_single_water_to_cl_ccsd.xlsx
+++ b/embedded_cl_in_1st_layer_of_ice_single_water_to_cl_ccsd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F53C06-A3B0-284B-B7E8-5FC3DF11615E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90674D8E-69AE-CE41-9245-7C203D7D18BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="960" windowWidth="21640" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
   </bookViews>
@@ -391,453 +391,453 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894879FA-00C2-5D46-B04A-A85BFC6EEBFA}">
-  <dimension ref="B4:R29"/>
+  <dimension ref="A4:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
         <v>1</v>
       </c>
-      <c r="J4" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="N4" t="s">
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="R4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2833.047536</v>
+      </c>
       <c r="B5">
-        <v>2833.047536</v>
-      </c>
-      <c r="F5">
         <v>275.4979932</v>
       </c>
-      <c r="J5">
+      <c r="C5">
         <v>204.09148329999999</v>
       </c>
-      <c r="N5">
+      <c r="D5">
         <v>204.93894230000001</v>
       </c>
-      <c r="R5">
+      <c r="E5">
         <v>203.24402430000001</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2832.5795400000002</v>
+      </c>
       <c r="B6">
-        <v>2832.5795400000002</v>
-      </c>
-      <c r="F6">
         <v>275.06690889999999</v>
       </c>
-      <c r="J6">
+      <c r="C6">
         <v>203.65773669999999</v>
       </c>
-      <c r="N6">
+      <c r="D6">
         <v>204.50507210000001</v>
       </c>
-      <c r="R6">
+      <c r="E6">
         <v>202.8104013</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2832.9288999999999</v>
+      </c>
       <c r="B7">
-        <v>2832.9288999999999</v>
-      </c>
-      <c r="F7">
         <v>275.4191343</v>
       </c>
-      <c r="J7">
+      <c r="C7">
         <v>204.00988469999999</v>
       </c>
-      <c r="N7">
+      <c r="D7">
         <v>204.85720889999999</v>
       </c>
-      <c r="R7">
+      <c r="E7">
         <v>203.16256039999999</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2828.3437869999998</v>
+      </c>
       <c r="B8">
-        <v>2828.3437869999998</v>
-      </c>
-      <c r="F8">
         <v>270.92929129999999</v>
       </c>
-      <c r="J8">
+      <c r="C8">
         <v>199.5458936</v>
       </c>
-      <c r="N8">
+      <c r="D8">
         <v>200.3933681</v>
       </c>
-      <c r="R8">
+      <c r="E8">
         <v>198.69841919999999</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2832.9579530000001</v>
+      </c>
       <c r="B9">
-        <v>2832.9579530000001</v>
-      </c>
-      <c r="F9">
         <v>275.43790230000002</v>
       </c>
-      <c r="J9">
+      <c r="C9">
         <v>204.02943089999999</v>
       </c>
-      <c r="N9">
+      <c r="D9">
         <v>204.8767986</v>
       </c>
-      <c r="R9">
+      <c r="E9">
         <v>203.18206319999999</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2831.4584789999999</v>
+      </c>
       <c r="B10">
-        <v>2831.4584789999999</v>
-      </c>
-      <c r="F10">
         <v>273.89570529999997</v>
       </c>
-      <c r="J10">
+      <c r="C10">
         <v>202.4906579</v>
       </c>
-      <c r="N10">
+      <c r="D10">
         <v>203.33816809999999</v>
       </c>
-      <c r="R10">
+      <c r="E10">
         <v>201.64314759999999</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2832.3558539999999</v>
+      </c>
       <c r="B11">
-        <v>2832.3558539999999</v>
-      </c>
-      <c r="F11">
         <v>274.83998550000001</v>
       </c>
-      <c r="J11">
+      <c r="C11">
         <v>203.43131600000001</v>
       </c>
-      <c r="N11">
+      <c r="D11">
         <v>204.27865650000001</v>
       </c>
-      <c r="R11">
+      <c r="E11">
         <v>202.58397550000001</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2832.4917639999999</v>
+      </c>
       <c r="B12">
-        <v>2832.4917639999999</v>
-      </c>
-      <c r="F12">
         <v>274.94197229999997</v>
       </c>
-      <c r="J12">
+      <c r="C12">
         <v>203.53579110000001</v>
       </c>
-      <c r="N12">
+      <c r="D12">
         <v>204.38323539999999</v>
       </c>
-      <c r="R12">
+      <c r="E12">
         <v>202.6883469</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2832.6044019999999</v>
+      </c>
       <c r="B13">
-        <v>2832.6044019999999</v>
-      </c>
-      <c r="F13">
         <v>275.07372420000002</v>
       </c>
-      <c r="J13">
+      <c r="C13">
         <v>203.6657251</v>
       </c>
-      <c r="N13">
+      <c r="D13">
         <v>204.51311000000001</v>
       </c>
-      <c r="R13">
+      <c r="E13">
         <v>202.81834019999999</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2831.7597190000001</v>
+      </c>
       <c r="B14">
-        <v>2831.7597190000001</v>
-      </c>
-      <c r="F14">
         <v>274.21060949999998</v>
       </c>
-      <c r="J14">
+      <c r="C14">
         <v>202.80417990000001</v>
       </c>
-      <c r="N14">
+      <c r="D14">
         <v>203.65162710000001</v>
       </c>
-      <c r="R14">
+      <c r="E14">
         <v>201.95673260000001</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2831.646671</v>
+      </c>
       <c r="B15">
-        <v>2831.646671</v>
-      </c>
-      <c r="F15">
         <v>274.08242089999999</v>
       </c>
-      <c r="J15">
+      <c r="C15">
         <v>202.6769942</v>
       </c>
-      <c r="N15">
+      <c r="D15">
         <v>203.52450390000001</v>
       </c>
-      <c r="R15">
+      <c r="E15">
         <v>201.8294846</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2831.613331</v>
+      </c>
       <c r="B16">
-        <v>2831.613331</v>
-      </c>
-      <c r="F16">
         <v>274.05881049999999</v>
       </c>
-      <c r="J16">
+      <c r="C16">
         <v>202.6525096</v>
       </c>
-      <c r="N16">
+      <c r="D16">
         <v>203.4999895</v>
       </c>
-      <c r="R16">
+      <c r="E16">
         <v>201.80502960000001</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2831.9260439999998</v>
+      </c>
       <c r="B17">
-        <v>2831.9260439999998</v>
-      </c>
-      <c r="F17">
         <v>274.41097710000003</v>
       </c>
-      <c r="J17">
+      <c r="C17">
         <v>203.0020251</v>
       </c>
-      <c r="N17">
+      <c r="D17">
         <v>203.84937360000001</v>
       </c>
-      <c r="R17">
+      <c r="E17">
         <v>202.15467659999999</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2832.713816</v>
+      </c>
       <c r="B18">
-        <v>2832.713816</v>
-      </c>
-      <c r="F18">
         <v>275.17934939999998</v>
       </c>
-      <c r="J18">
+      <c r="C18">
         <v>203.77192450000001</v>
       </c>
-      <c r="N18">
+      <c r="D18">
         <v>204.6193241</v>
       </c>
-      <c r="R18">
+      <c r="E18">
         <v>202.92452499999999</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2832.9569449999999</v>
+      </c>
       <c r="B19">
-        <v>2832.9569449999999</v>
-      </c>
-      <c r="F19">
         <v>275.44506339999998</v>
       </c>
-      <c r="J19">
+      <c r="C19">
         <v>204.0359254</v>
       </c>
-      <c r="N19">
+      <c r="D19">
         <v>204.88325309999999</v>
       </c>
-      <c r="R19">
+      <c r="E19">
         <v>203.1885977</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2832.2236290000001</v>
+      </c>
       <c r="B20">
-        <v>2832.2236290000001</v>
-      </c>
-      <c r="F20">
         <v>274.67940959999999</v>
       </c>
-      <c r="J20">
+      <c r="C20">
         <v>203.27288490000001</v>
       </c>
-      <c r="N20">
+      <c r="D20">
         <v>204.1203094</v>
       </c>
-      <c r="R20">
+      <c r="E20">
         <v>202.42546039999999</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2831.8736039999999</v>
+      </c>
       <c r="B21">
-        <v>2831.8736039999999</v>
-      </c>
-      <c r="F21">
         <v>274.32325809999998</v>
       </c>
-      <c r="J21">
+      <c r="C21">
         <v>202.91658519999999</v>
       </c>
-      <c r="N21">
+      <c r="D21">
         <v>203.76406489999999</v>
       </c>
-      <c r="R21">
+      <c r="E21">
         <v>202.06910550000001</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2830.8073869999998</v>
+      </c>
       <c r="B22">
-        <v>2830.8073869999998</v>
-      </c>
-      <c r="F22">
         <v>273.17381699999999</v>
       </c>
-      <c r="J22">
+      <c r="C22">
         <v>201.81222310000001</v>
       </c>
-      <c r="N22">
+      <c r="D22">
         <v>202.65986179999999</v>
       </c>
-      <c r="R22">
+      <c r="E22">
         <v>200.96458430000001</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2832.952127</v>
+      </c>
       <c r="B23">
-        <v>2832.952127</v>
-      </c>
-      <c r="F23">
         <v>275.43354260000001</v>
       </c>
-      <c r="J23">
+      <c r="C23">
         <v>204.0247358</v>
       </c>
-      <c r="N23">
+      <c r="D23">
         <v>204.87208759999999</v>
       </c>
-      <c r="R23">
+      <c r="E23">
         <v>203.17738399999999</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2833.3361930000001</v>
+      </c>
       <c r="B24">
-        <v>2833.3361930000001</v>
-      </c>
-      <c r="F24">
         <v>275.83515569999997</v>
       </c>
-      <c r="J24">
+      <c r="C24">
         <v>204.4249489</v>
       </c>
-      <c r="N24">
+      <c r="D24">
         <v>205.2722474</v>
       </c>
-      <c r="R24">
+      <c r="E24">
         <v>203.5776505</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2831.598105</v>
+      </c>
       <c r="B25">
-        <v>2831.598105</v>
-      </c>
-      <c r="F25">
         <v>274.03102639999997</v>
       </c>
-      <c r="J25">
+      <c r="C25">
         <v>202.62565799999999</v>
       </c>
-      <c r="N25">
+      <c r="D25">
         <v>203.47321120000001</v>
       </c>
-      <c r="R25">
+      <c r="E25">
         <v>201.77810489999999</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2830.8131079999998</v>
+      </c>
       <c r="B26">
-        <v>2830.8131079999998</v>
-      </c>
-      <c r="F26">
         <v>273.19750859999999</v>
       </c>
-      <c r="J26">
+      <c r="C26">
         <v>201.8342351</v>
       </c>
-      <c r="N26">
+      <c r="D26">
         <v>202.68179230000001</v>
       </c>
-      <c r="R26">
+      <c r="E26">
         <v>200.98667789999999</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2832.7135969999999</v>
+      </c>
       <c r="B27">
-        <v>2832.7135969999999</v>
-      </c>
-      <c r="F27">
         <v>275.20596610000001</v>
       </c>
-      <c r="J27">
+      <c r="C27">
         <v>203.79644859999999</v>
       </c>
-      <c r="N27">
+      <c r="D27">
         <v>204.6437731</v>
       </c>
-      <c r="R27">
+      <c r="E27">
         <v>202.94912400000001</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2832.3486240000002</v>
+      </c>
       <c r="B28">
-        <v>2832.3486240000002</v>
-      </c>
-      <c r="F28">
         <v>274.8558041</v>
       </c>
-      <c r="J28">
+      <c r="C28">
         <v>203.4451875</v>
       </c>
-      <c r="N28">
+      <c r="D28">
         <v>204.29248269999999</v>
       </c>
-      <c r="R28">
+      <c r="E28">
         <v>202.59789230000001</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2832.6976800000002</v>
+      </c>
       <c r="B29">
-        <v>2832.6976800000002</v>
-      </c>
-      <c r="F29">
         <v>275.17209380000003</v>
       </c>
-      <c r="J29">
+      <c r="C29">
         <v>203.76399180000001</v>
       </c>
-      <c r="N29">
+      <c r="D29">
         <v>204.61135609999999</v>
       </c>
-      <c r="R29">
+      <c r="E29">
         <v>202.9166276</v>
       </c>
     </row>

--- a/embedded_cl_in_1st_layer_of_ice_single_water_to_cl_ccsd.xlsx
+++ b/embedded_cl_in_1st_layer_of_ice_single_water_to_cl_ccsd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/HCl_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90674D8E-69AE-CE41-9245-7C203D7D18BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314251EE-9BA4-DF4B-B52D-FEF6D6EA8A2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="960" windowWidth="21640" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
+    <workbookView xWindow="1340" yWindow="980" windowWidth="21640" windowHeight="14420" xr2:uid="{41A0B090-B6CC-EE4B-87B1-C158C411CEA8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Embedded_one_water_1s_cl_acv3z_x2camf</t>
   </si>
@@ -40,6 +40,21 @@
   </si>
   <si>
     <t>Embedded_one_water_p32_cl_acv3z_x2camf</t>
+  </si>
+  <si>
+    <t>eomip_cl_embedded_CVS_daug-acv3z_x2cmmf_gaunt_1s</t>
+  </si>
+  <si>
+    <t>eomip_cl_embedded_CVS_daug-acv3z_x2cmmf_gaunt_2s</t>
+  </si>
+  <si>
+    <t>eomip_cl_embedded_CVS_daug-acv3z_x2cmmf_gaunt_2p12</t>
+  </si>
+  <si>
+    <t>eomip_cl_embedded_CVS_daug-acv3z_x2cmmf_gaunt_2p</t>
+  </si>
+  <si>
+    <t>eomip_cl_embedded_CVS_daug-acv3z_x2cmmf_gaunt_2p32</t>
   </si>
 </sst>
 </file>
@@ -391,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894879FA-00C2-5D46-B04A-A85BFC6EEBFA}">
-  <dimension ref="A4:E29"/>
+  <dimension ref="A4:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -415,8 +430,23 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2833.047536</v>
       </c>
@@ -432,8 +462,23 @@
       <c r="E5">
         <v>203.24402430000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>2832.0124890000002</v>
+      </c>
+      <c r="G5">
+        <v>275.49195450000002</v>
+      </c>
+      <c r="H5">
+        <v>204.80767019999999</v>
+      </c>
+      <c r="I5">
+        <v>203.18072069999999</v>
+      </c>
+      <c r="J5">
+        <v>203.9941954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2832.5795400000002</v>
       </c>
@@ -449,8 +494,23 @@
       <c r="E6">
         <v>202.8104013</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>2831.5478170000001</v>
+      </c>
+      <c r="G6">
+        <v>275.06382719999999</v>
+      </c>
+      <c r="H6">
+        <v>204.37678320000001</v>
+      </c>
+      <c r="I6">
+        <v>202.7533205</v>
+      </c>
+      <c r="J6">
+        <v>203.56505179999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2832.9288999999999</v>
       </c>
@@ -466,8 +526,23 @@
       <c r="E7">
         <v>203.16256039999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>2831.896009</v>
+      </c>
+      <c r="G7">
+        <v>275.41510249999999</v>
+      </c>
+      <c r="H7">
+        <v>204.7279327</v>
+      </c>
+      <c r="I7">
+        <v>203.09876629999999</v>
+      </c>
+      <c r="J7">
+        <v>203.91334950000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2828.3437869999998</v>
       </c>
@@ -483,8 +558,23 @@
       <c r="E8">
         <v>198.69841919999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>2827.3525289999998</v>
+      </c>
+      <c r="G8">
+        <v>270.96737660000002</v>
+      </c>
+      <c r="H8">
+        <v>200.30614270000001</v>
+      </c>
+      <c r="I8">
+        <v>198.66106529999999</v>
+      </c>
+      <c r="J8">
+        <v>199.48360400000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2832.9579530000001</v>
       </c>
@@ -500,8 +590,23 @@
       <c r="E9">
         <v>203.18206319999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>2831.924407</v>
+      </c>
+      <c r="G9">
+        <v>275.43348129999998</v>
+      </c>
+      <c r="H9">
+        <v>204.7470892</v>
+      </c>
+      <c r="I9">
+        <v>203.11719059999999</v>
+      </c>
+      <c r="J9">
+        <v>203.93213990000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2831.4584789999999</v>
       </c>
@@ -517,8 +622,23 @@
       <c r="E10">
         <v>201.64314759999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>2830.4229989999999</v>
+      </c>
+      <c r="G10">
+        <v>273.84823790000002</v>
+      </c>
+      <c r="H10">
+        <v>203.20658689999999</v>
+      </c>
+      <c r="I10">
+        <v>201.57732390000001</v>
+      </c>
+      <c r="J10">
+        <v>202.3919554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2832.3558539999999</v>
       </c>
@@ -534,8 +654,23 @@
       <c r="E11">
         <v>202.58397550000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>2831.3227010000001</v>
+      </c>
+      <c r="G11">
+        <v>274.83568339999999</v>
+      </c>
+      <c r="H11">
+        <v>204.14910330000001</v>
+      </c>
+      <c r="I11">
+        <v>202.52006639999999</v>
+      </c>
+      <c r="J11">
+        <v>203.33458479999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2832.4917639999999</v>
       </c>
@@ -551,8 +686,23 @@
       <c r="E12">
         <v>202.6883469</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>2831.4557909999999</v>
+      </c>
+      <c r="G12">
+        <v>274.93494889999999</v>
+      </c>
+      <c r="H12">
+        <v>204.25093910000001</v>
+      </c>
+      <c r="I12">
+        <v>202.62222389999999</v>
+      </c>
+      <c r="J12">
+        <v>203.43658149999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2832.6044019999999</v>
       </c>
@@ -568,8 +718,23 @@
       <c r="E13">
         <v>202.81834019999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>2831.5729900000001</v>
+      </c>
+      <c r="G13">
+        <v>275.07081970000002</v>
+      </c>
+      <c r="H13">
+        <v>204.3849726</v>
+      </c>
+      <c r="I13">
+        <v>202.75595200000001</v>
+      </c>
+      <c r="J13">
+        <v>203.5704623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2831.7597190000001</v>
       </c>
@@ -585,8 +750,23 @@
       <c r="E14">
         <v>201.95673260000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>2830.7254929999999</v>
+      </c>
+      <c r="G14">
+        <v>274.16441090000001</v>
+      </c>
+      <c r="H14">
+        <v>203.52131449999999</v>
+      </c>
+      <c r="I14">
+        <v>201.89396500000001</v>
+      </c>
+      <c r="J14">
+        <v>202.70763969999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2831.646671</v>
       </c>
@@ -602,8 +782,23 @@
       <c r="E15">
         <v>201.8294846</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>2830.6114830000001</v>
+      </c>
+      <c r="G15">
+        <v>274.03482100000002</v>
+      </c>
+      <c r="H15">
+        <v>203.3928617</v>
+      </c>
+      <c r="I15">
+        <v>201.76548529999999</v>
+      </c>
+      <c r="J15">
+        <v>202.5791735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2831.613331</v>
       </c>
@@ -619,8 +814,23 @@
       <c r="E16">
         <v>201.80502960000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>2830.579268</v>
+      </c>
+      <c r="G16">
+        <v>274.01234010000002</v>
+      </c>
+      <c r="H16">
+        <v>203.36952199999999</v>
+      </c>
+      <c r="I16">
+        <v>201.742569</v>
+      </c>
+      <c r="J16">
+        <v>202.55604550000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2831.9260439999998</v>
       </c>
@@ -636,8 +846,23 @@
       <c r="E17">
         <v>202.15467659999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>2830.8898730000001</v>
+      </c>
+      <c r="G17">
+        <v>274.362978</v>
+      </c>
+      <c r="H17">
+        <v>203.71742800000001</v>
+      </c>
+      <c r="I17">
+        <v>202.0939218</v>
+      </c>
+      <c r="J17">
+        <v>202.90567490000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2832.713816</v>
       </c>
@@ -653,8 +878,23 @@
       <c r="E18">
         <v>202.92452499999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>2831.6784080000002</v>
+      </c>
+      <c r="G18">
+        <v>275.17331860000002</v>
+      </c>
+      <c r="H18">
+        <v>204.48796870000001</v>
+      </c>
+      <c r="I18">
+        <v>202.859814</v>
+      </c>
+      <c r="J18">
+        <v>203.67389130000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2832.9569449999999</v>
       </c>
@@ -670,8 +910,23 @@
       <c r="E19">
         <v>203.1885977</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>2831.9243350000002</v>
+      </c>
+      <c r="G19">
+        <v>275.44120679999997</v>
+      </c>
+      <c r="H19">
+        <v>204.75414040000001</v>
+      </c>
+      <c r="I19">
+        <v>203.12455499999999</v>
+      </c>
+      <c r="J19">
+        <v>203.93934770000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2832.2236290000001</v>
       </c>
@@ -687,8 +942,23 @@
       <c r="E20">
         <v>202.42546039999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>2831.1869689999999</v>
+      </c>
+      <c r="G20">
+        <v>274.6309329</v>
+      </c>
+      <c r="H20">
+        <v>203.9877774</v>
+      </c>
+      <c r="I20">
+        <v>202.36316020000001</v>
+      </c>
+      <c r="J20">
+        <v>203.1754688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2831.8736039999999</v>
       </c>
@@ -704,8 +974,23 @@
       <c r="E21">
         <v>202.06910550000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>2830.836135</v>
+      </c>
+      <c r="G21">
+        <v>274.27420510000002</v>
+      </c>
+      <c r="H21">
+        <v>203.6309718</v>
+      </c>
+      <c r="I21">
+        <v>202.00571400000001</v>
+      </c>
+      <c r="J21">
+        <v>202.8183429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2830.8073869999998</v>
       </c>
@@ -721,8 +1006,23 @@
       <c r="E22">
         <v>200.96458430000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>2829.7700100000002</v>
+      </c>
+      <c r="G22">
+        <v>273.16596800000002</v>
+      </c>
+      <c r="H22">
+        <v>202.52674999999999</v>
+      </c>
+      <c r="I22">
+        <v>200.90221679999999</v>
+      </c>
+      <c r="J22">
+        <v>201.71448340000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2832.952127</v>
       </c>
@@ -738,8 +1038,23 @@
       <c r="E23">
         <v>203.17738399999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>2831.916522</v>
+      </c>
+      <c r="G23">
+        <v>275.42743369999999</v>
+      </c>
+      <c r="H23">
+        <v>204.74069220000001</v>
+      </c>
+      <c r="I23">
+        <v>203.11369619999999</v>
+      </c>
+      <c r="J23">
+        <v>203.9271942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2833.3361930000001</v>
       </c>
@@ -755,8 +1070,23 @@
       <c r="E24">
         <v>203.5776505</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>2832.3043010000001</v>
+      </c>
+      <c r="G24">
+        <v>275.83231599999999</v>
+      </c>
+      <c r="H24">
+        <v>205.14413579999999</v>
+      </c>
+      <c r="I24">
+        <v>203.51640399999999</v>
+      </c>
+      <c r="J24">
+        <v>204.33026989999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2831.598105</v>
       </c>
@@ -772,8 +1102,23 @@
       <c r="E25">
         <v>201.77810489999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>2830.5625530000002</v>
+      </c>
+      <c r="G25">
+        <v>273.98376389999999</v>
+      </c>
+      <c r="H25">
+        <v>203.3418666</v>
+      </c>
+      <c r="I25">
+        <v>201.712918</v>
+      </c>
+      <c r="J25">
+        <v>202.5273923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2830.8131079999998</v>
       </c>
@@ -789,8 +1134,23 @@
       <c r="E26">
         <v>200.98667789999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>2829.776758</v>
+      </c>
+      <c r="G26">
+        <v>273.19024810000002</v>
+      </c>
+      <c r="H26">
+        <v>202.54930630000001</v>
+      </c>
+      <c r="I26">
+        <v>200.9238618</v>
+      </c>
+      <c r="J26">
+        <v>201.73658399999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2832.7135969999999</v>
       </c>
@@ -806,8 +1166,23 @@
       <c r="E27">
         <v>202.94912400000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>2831.6812319999999</v>
+      </c>
+      <c r="G27">
+        <v>275.20270729999999</v>
+      </c>
+      <c r="H27">
+        <v>204.51525860000001</v>
+      </c>
+      <c r="I27">
+        <v>202.88700019999999</v>
+      </c>
+      <c r="J27">
+        <v>203.70112940000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2832.3486240000002</v>
       </c>
@@ -823,8 +1198,23 @@
       <c r="E28">
         <v>202.59789230000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>2831.314069</v>
+      </c>
+      <c r="G28">
+        <v>274.85109360000001</v>
+      </c>
+      <c r="H28">
+        <v>204.16245240000001</v>
+      </c>
+      <c r="I28">
+        <v>202.540402</v>
+      </c>
+      <c r="J28">
+        <v>203.35142719999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2832.6976800000002</v>
       </c>
@@ -839,6 +1229,21 @@
       </c>
       <c r="E29">
         <v>202.9166276</v>
+      </c>
+      <c r="F29">
+        <v>2831.6636859999999</v>
+      </c>
+      <c r="G29">
+        <v>275.16677650000003</v>
+      </c>
+      <c r="H29">
+        <v>204.4808165</v>
+      </c>
+      <c r="I29">
+        <v>202.85215220000001</v>
+      </c>
+      <c r="J29">
+        <v>203.6664844</v>
       </c>
     </row>
   </sheetData>
